--- a/deno/gen/background_task/background_task.xlsx
+++ b/deno/gen/background_task/background_task.xlsx
@@ -60,10 +60,10 @@
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model._state%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model._type%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.state%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model.type%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.result%&gt;</t>

--- a/deno/gen/background_task/background_task.xlsx
+++ b/deno/gen/background_task/background_task.xlsx
@@ -30,31 +30,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">执行结果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">错误信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结束时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创建人</t>
+    <t xml:space="preserve">&lt;%=await _data_.n("名称")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("状态")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("类型")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("执行结果")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("错误信息")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("开始时间")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("结束时间")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("备注")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("创建人")%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.lbl%&gt;</t>
